--- a/Projects/CRM-HTML/HowToInputMayaaID.xlsx
+++ b/Projects/CRM-HTML/HowToInputMayaaID.xlsx
@@ -4,17 +4,81 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="13215"/>
+    <workbookView xWindow="19905" yWindow="435" windowWidth="19440" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="MayaaID" sheetId="1" r:id="rId1"/>
+    <sheet name="embedTaget" sheetId="2" r:id="rId2"/>
+    <sheet name="Review" sheetId="3" r:id="rId3"/>
+    <sheet name="Status" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>チャン クオック アン</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>チャン クオック アン:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Refer to comment #1 in MayaaID_QA.xlsx. 
+Skip it…
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>チャン クオック アン:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Refer to comment #2 in MayaaID_QA.xlsx. 
+Skip it…</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>HOW TO INPUT Mayaa id</t>
     <phoneticPr fontId="1"/>
@@ -32,19 +96,466 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>■MOCK-UP HTML &lt;https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/HTML&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■MOCK-UP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use mockup_internal_review_record.xlsx for any fix.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H100 is already input MayaaID. Please refer as sample.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target of embeding MayaaID is the items which will connect to DB.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>■HTML with MayaaID &lt;https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/HTMLwithMayaaID&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■MOCK-UP HTML &lt;https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/HTML&gt;</t>
+    <t>https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/HTMLwithMayaaID/H100.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■Detail Design File(画面設計書) &lt;https://122.208.204.43/svn/ToyosuID-42-HMW-S1/10-画面設計/00_成果物&gt;</t>
+    <t>■Screen Design File(画面設計書) &lt;https://122.208.204.43/svn/ToyosuID-42-HMW-S1/10-画面設計/00_成果物&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■MOCK-UP</t>
+    <t>Review Point of mayaaid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. Self-check along to Review Point.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. Thi-san or Quoc Anh-san reviews after finish self-check.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Screen Design File, and compare to the embeded mayaaID.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K111
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H203
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H302
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N104
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C105
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C207
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C208
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C209
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C300
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C400
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L300
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M600
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K101
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K107
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H204
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H305
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y102
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C106
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C201
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C213
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C216
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C401
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K103
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K108
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H205
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C107
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C214
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K104
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H200
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H300
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N102
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C102
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C103
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C200
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C203
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C217
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C301
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C500
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K105
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H201
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H202
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H301
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N103
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C104
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C202
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C205
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C206
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C210
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C211
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C212
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M500
+</t>
+  </si>
+  <si>
+    <t>screen ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP reviewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miyagi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enomoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VN status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T100
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T101
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">note:some screen design file is not made yet.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      please skip to the other screen of which screen design is made</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VN reviewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anh Tran</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If there are any excess or deficiency in Screen Design File, please write down to QA File.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[QA File Path] 
+https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/CHECKLIST/MayaaID_QA.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen Design File is okay now</t>
+  </si>
+  <si>
+    <t>Not finish, skip it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Screen layout is the same as before and after embed MayaaID. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Before] https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beforeMayaaidHtml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[After] https://122.208.204.43/svn/ToyosuID-42-HMW-S1/MOCK-UP/OUTPUT/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kien</t>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K100.html(Sample)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Table for Ajax Load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K100_actionTbody.html(Sample)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■add the source below to the html at HTMLwithMayaaID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -52,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +605,89 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,13 +695,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,8 +732,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -148,20 +793,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>65302</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>8991</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>32917</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>76571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="79" name="図 78"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -174,8 +819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="5334000"/>
-          <a:ext cx="10990477" cy="4276191"/>
+          <a:off x="9630833" y="19240500"/>
+          <a:ext cx="7600001" cy="5495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -186,20 +831,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>78922</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>432656</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>116482</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>606548</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>137144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="44" name="図 43"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -212,8 +857,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11666764" y="11209565"/>
-          <a:ext cx="11217678" cy="4459881"/>
+          <a:off x="9630833" y="25167167"/>
+          <a:ext cx="7485715" cy="3523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>40738</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>113673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620499" y="11647768"/>
+          <a:ext cx="11552382" cy="5447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65302</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>8990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="5334000"/>
+          <a:ext cx="10990477" cy="4276191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -243,7 +964,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -271,7 +992,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>94074</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>75510</xdr:rowOff>
+      <xdr:rowOff>75509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -281,7 +1002,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -488,8 +1209,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>21763</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>115660</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -498,8 +1219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12719949" y="11508921"/>
-          <a:ext cx="9753600" cy="4159703"/>
+          <a:off x="12719949" y="11522528"/>
+          <a:ext cx="9753600" cy="6711043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,16 +1321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>23122</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>146959</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>42172</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -617,9 +1338,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14310622" y="14992352"/>
-          <a:ext cx="6142264" cy="57149"/>
+        <a:xfrm flipV="1">
+          <a:off x="13892893" y="15049500"/>
+          <a:ext cx="6803571" cy="3088820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,26 +1383,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>530678</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>175534</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>23122</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8694964" y="15020927"/>
-          <a:ext cx="5615658" cy="545644"/>
+        <a:xfrm>
+          <a:off x="8694964" y="15580178"/>
+          <a:ext cx="5157107" cy="1020536"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -710,15 +1429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>314323</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>327929</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>170091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -727,8 +1446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9884147" y="15158757"/>
-          <a:ext cx="2464735" cy="518272"/>
+          <a:off x="9852929" y="17151805"/>
+          <a:ext cx="5278214" cy="687160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -762,7 +1481,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>Delete Repeated &lt;tr&gt;&lt;/tr&gt;</a:t>
+            <a:t>Repeated &lt;tr&gt;&lt;/tr&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>surrounding &lt;span</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>m:id="forMokUp"&gt;&lt;/span&gt;</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
@@ -1311,15 +2042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>2327</xdr:colOff>
+      <xdr:colOff>23494</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>91155</xdr:rowOff>
+      <xdr:rowOff>6489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>650029</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22959</xdr:rowOff>
+      <xdr:colOff>671196</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1328,8 +2059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16330898" y="880369"/>
-          <a:ext cx="5410202" cy="816269"/>
+          <a:off x="16533494" y="800239"/>
+          <a:ext cx="5463119" cy="778471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,14 +2158,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>11851</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92275</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>650029</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17916</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1443,8 +2174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16340422" y="1942846"/>
-          <a:ext cx="5400678" cy="986999"/>
+          <a:off x="16521851" y="1664657"/>
+          <a:ext cx="5453595" cy="949201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,15 +2225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>23057</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1667</xdr:rowOff>
+      <xdr:colOff>13096</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>672440</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>39207</xdr:rowOff>
+      <xdr:colOff>666837</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1511,8 +2242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16351628" y="4151846"/>
-          <a:ext cx="5411883" cy="1098897"/>
+          <a:off x="16523096" y="3404455"/>
+          <a:ext cx="5469158" cy="2712711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,7 +2283,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1566,7 +2297,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1577,28 +2308,277 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;td&gt;&lt;span m:id="mayaaId"&gt;XXXXX&lt;/span&gt;&lt;/td&gt;</a:t>
+            <a:t>&lt;td&gt;&lt;span m:id="mayaaId"&gt;aaaaa&lt;/span&gt;&lt;/td&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t> &lt;td&gt;&lt;span m:id="mayaaId"&gt;bbbbb&lt;/span&gt;&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;td&gt;&lt;span m:id="mayaaId"&gt;ccccc&lt;/span&gt;&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>&lt;/tr&gt;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;span m:id="forMokUp"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;td&gt;ddddd&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;td&gt;eeeee&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;td&gt;fffff&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;/tr&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/span&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
             <a:effectLst/>
           </a:endParaRPr>
@@ -1610,15 +2590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>22499</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>18476</xdr:rowOff>
+      <xdr:colOff>11916</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>11292</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66661</xdr:rowOff>
+      <xdr:colOff>709</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1627,8 +2607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16351070" y="3284190"/>
-          <a:ext cx="5431651" cy="578864"/>
+          <a:off x="16521916" y="2727810"/>
+          <a:ext cx="5492126" cy="556186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1671,11 +2651,21 @@
             </a:rPr>
             <a:t>&lt;input type="radio" name="xxx" m:id="mayaaId"/&gt;</a:t>
           </a:r>
-          <a:br>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
               <a:effectLst/>
-            </a:rPr>
-          </a:br>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;input type="checkbox" name="xxx" m:id="mayaaId" /&gt;</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:effectLst/>
@@ -1757,13 +2747,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>23221</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>31283</xdr:rowOff>
+      <xdr:rowOff>31284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>674841</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9591</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1772,8 +2762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11589292" y="820497"/>
-          <a:ext cx="3373049" cy="862773"/>
+          <a:off x="11717804" y="825034"/>
+          <a:ext cx="3403287" cy="709549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1806,30 +2796,30 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
             <a:t>&lt;input type="text" name="xxx"</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
             <a:t>/&gt;</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1844,7 +2834,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1856,28 +2846,28 @@
             <a:t>&lt;input type="image" name="xxx" /&gt;</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
             <a:t/>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
             <a:t/>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
               <a:effectLst/>
             </a:rPr>
           </a:br>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1886,15 +2876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>31063</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60418</xdr:rowOff>
+      <xdr:colOff>9897</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>13694</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>175278</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>680445</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1903,8 +2893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11597134" y="1910989"/>
-          <a:ext cx="3384417" cy="999325"/>
+          <a:off x="11704480" y="1652454"/>
+          <a:ext cx="3422215" cy="970331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2000,15 +2990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>13695</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>132137</xdr:rowOff>
+      <xdr:colOff>34861</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36106</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3429</xdr:rowOff>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134966</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2017,8 +3007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11579766" y="3220958"/>
-          <a:ext cx="3424197" cy="578864"/>
+          <a:off x="11729444" y="2743198"/>
+          <a:ext cx="3425889" cy="556185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2056,6 +3046,27 @@
             </a:rPr>
             <a:t>&lt;input type="radio" name="xxx" /&gt;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;input type="checkbox" name="xxx" /&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:effectLst/>
@@ -2081,15 +3092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29382</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>148945</xdr:rowOff>
+      <xdr:colOff>18798</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>674840</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175279</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2098,8 +3109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11595453" y="4122231"/>
-          <a:ext cx="3366887" cy="1087691"/>
+          <a:off x="11713381" y="3418415"/>
+          <a:ext cx="3420786" cy="2656418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2154,7 +3165,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> &lt;td&gt;XXXXX&lt;/td&gt;</a:t>
+            <a:t> &lt;td&gt;aaaaa&lt;/td&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2169,7 +3180,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> &lt;td&gt;XXXXX&lt;/td&gt;</a:t>
+            <a:t> &lt;td&gt;bbbbb&lt;/td&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2184,7 +3195,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> &lt;td&gt;XXXXX&lt;/td&gt;</a:t>
+            <a:t> &lt;td&gt;ccccc&lt;/td&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2201,6 +3212,94 @@
             </a:rPr>
             <a:t>&lt;/tr&gt;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;tr&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;td&gt;ddddd&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;td&gt;eeeee&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;td&gt;fffff&lt;/td&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/tr&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -2210,15 +3309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18176</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80589</xdr:rowOff>
+      <xdr:colOff>29382</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>641223</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>105242</xdr:rowOff>
+      <xdr:colOff>652429</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2227,8 +3326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11584247" y="5469018"/>
-          <a:ext cx="3344476" cy="1303724"/>
+          <a:off x="11723965" y="6291575"/>
+          <a:ext cx="3374714" cy="2640758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,15 +3443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14092</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23599</xdr:rowOff>
+      <xdr:colOff>4131</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57057</xdr:rowOff>
+      <xdr:colOff>643181</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2361,8 +3460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16342663" y="5480063"/>
-          <a:ext cx="6762265" cy="1312530"/>
+          <a:off x="16514131" y="6308668"/>
+          <a:ext cx="6830300" cy="2634249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2401,7 +3500,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2414,65 +3513,298 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;span m:id="mayaaLoop"&gt;</a:t>
+            <a:t> &lt;span m:id="mayaaLoop"&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>&lt;option  m:id="mayaaCombo" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value="1"</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;option  m:id="mayaaCombo"&gt;&lt;span m:id="mayaaId"&gt;dummy&lt;/span&gt;&lt;/option&gt;</a:t>
+            <a:t>&gt;aaa&lt;/option&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;/span&gt;</a:t>
-          </a:r>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;span m:id="mayaaId"&gt;&lt;/span&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t> &lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;span id="forMokUp"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;option value="2"&gt;bbb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>option&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;option value="3"&gt;ccc&lt;/option&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;option value="4"&gt;ddd&lt;/option&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &lt;/span&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>&lt;/select&gt;</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2481,15 +3813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>13694</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>31283</xdr:rowOff>
+      <xdr:colOff>6849</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36105</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88994</xdr:rowOff>
+      <xdr:colOff>29260</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>89171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2498,8 +3830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11579765" y="7229462"/>
-          <a:ext cx="3424197" cy="588389"/>
+          <a:off x="11701432" y="9175461"/>
+          <a:ext cx="3461995" cy="565710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2594,16 +3926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1206</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47532</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>679164</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>169109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>663635</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95718</xdr:rowOff>
+      <xdr:colOff>653676</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>49206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2612,8 +3944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16329777" y="7245711"/>
-          <a:ext cx="5424929" cy="578864"/>
+          <a:off x="16501247" y="9143776"/>
+          <a:ext cx="5477846" cy="557430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2687,6 +4019,2754 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>503876</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156882" y="17279471"/>
+          <a:ext cx="9233259" cy="1378323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="17559619"/>
+          <a:ext cx="4650442" cy="369794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256369</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>89333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19240500"/>
+          <a:ext cx="6447619" cy="5000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9990666" y="19547417"/>
+          <a:ext cx="1227667" cy="820208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11218334" y="19452167"/>
+          <a:ext cx="4699000" cy="2159000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201082</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11207749" y="21621750"/>
+          <a:ext cx="4709583" cy="6942667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6498166" y="20044833"/>
+          <a:ext cx="3492500" cy="645583"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1.Add &lt;thead&gt;&lt;/thead&gt; and &lt;tbody&gt;&lt;/tbody&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>158752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>105835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13440834" y="20584585"/>
+          <a:ext cx="2603500" cy="455083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>2.Add  tbody id for Ajax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> load</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12297833" y="20812127"/>
+          <a:ext cx="1143001" cy="841373"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6529916" y="21992167"/>
+          <a:ext cx="3291416" cy="624416"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3.Inside</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>tbody </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>surrounding &lt;span</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>m:id="forMokUp"&gt;&lt;/span&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9821332" y="21791083"/>
+          <a:ext cx="1407585" cy="513292"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9990666" y="20367625"/>
+          <a:ext cx="1227667" cy="1328208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132444</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>40066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="右矢印 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7387167" y="21272501"/>
+          <a:ext cx="1000277" cy="378732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239499" y="21854584"/>
+          <a:ext cx="4614333" cy="2074334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328084</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="角丸四角形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667501" y="23473834"/>
+          <a:ext cx="3291416" cy="624416"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>4.Create new HTML file(ScreenID + "_"+tbody</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> id)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84668</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7651751" y="22891751"/>
+          <a:ext cx="3587748" cy="2931582"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26210</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>483000</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1402043" y="25876250"/>
+          <a:ext cx="7335957" cy="2878667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518584</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="角丸四角形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1883834" y="24659168"/>
+          <a:ext cx="2762250" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>5.add the source below to &lt;tr&gt; tag</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391583</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217335" y="25865667"/>
+          <a:ext cx="2677581" cy="169333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513292</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3264959" y="25230668"/>
+          <a:ext cx="1291167" cy="634999"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="角丸四角形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="539750" y="29061833"/>
+          <a:ext cx="2762250" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>6.add the MayaaId</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="26003250"/>
+          <a:ext cx="502708" cy="3058583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="26511251"/>
+          <a:ext cx="1317625" cy="2550582"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>71969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569383</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="26763136"/>
+          <a:ext cx="1400175" cy="2298697"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>23286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>383116</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="27561119"/>
+          <a:ext cx="1213908" cy="1500714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="27781250"/>
+          <a:ext cx="2587626" cy="1280583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>14818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="28060651"/>
+          <a:ext cx="1364193" cy="1001182"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516468</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="28329467"/>
+          <a:ext cx="659343" cy="732366"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>10585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="28564418"/>
+          <a:ext cx="2979208" cy="497415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>84668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="26945168"/>
+          <a:ext cx="2979208" cy="2116665"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線矢印コネクタ 138"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1920875" y="27262668"/>
+          <a:ext cx="1815042" cy="1799165"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94642</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="590550"/>
+          <a:ext cx="9676792" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="897007" y="4951225"/>
+          <a:ext cx="9394134" cy="2929676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+            <a:alpha val="46000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612913</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3426100" y="6059911"/>
+          <a:ext cx="3373922" cy="875117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>Do not need to input to Result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t> table or buttons for Result table for now.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>75371</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6949936" y="1606826"/>
+          <a:ext cx="3789707" cy="1053134"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48907"/>
+            <a:gd name="adj2" fmla="val 25803"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>input Target is such as &lt;td&gt; of table, textbox,  radio button, dropdown list etc.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070652" y="2575891"/>
+          <a:ext cx="1606826" cy="1043609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>646043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770782" y="2517914"/>
+          <a:ext cx="1606826" cy="927652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>75371</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3636065" y="2133393"/>
+          <a:ext cx="3313871" cy="417650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>75371</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6369326" y="2133393"/>
+          <a:ext cx="580610" cy="392803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>240195</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983933" y="3702327"/>
+          <a:ext cx="3130827" cy="646043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>75371</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6477000" y="2133393"/>
+          <a:ext cx="472936" cy="1568933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3348442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398615</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4723355" y="4174433"/>
+          <a:ext cx="3891608" cy="3163127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18833</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3222985</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="706290" y="4166152"/>
+          <a:ext cx="3891608" cy="3163127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545193</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712305" y="4207565"/>
+          <a:ext cx="1207801" cy="364436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Before</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3329609</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4479433</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4704522" y="4248978"/>
+          <a:ext cx="1149824" cy="339589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>After</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>332625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1126435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1209261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="2959" t="4149" r="66051" b="17217"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1598543" y="1649560"/>
+          <a:ext cx="902805" cy="876636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2716696</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3866520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091609" y="6626088"/>
+          <a:ext cx="1149824" cy="339588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> same</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1673086</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>306521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4116515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1225826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3047999" y="1623456"/>
+          <a:ext cx="2443429" cy="919305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1126435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>766174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1673086</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>770943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2501348" y="2083109"/>
+          <a:ext cx="546651" cy="4769"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3005,9 +7085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3016,7 +7098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="R3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3029,9 +7114,6 @@
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="R4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3047,15 +7129,35 @@
     </row>
     <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C151" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3064,4 +7166,1655 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="89.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:BH14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="AP6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AX7" sqref="AX7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="5" width="8.75" style="10" customWidth="1"/>
+    <col min="6" max="60" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="5" spans="2:60" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+    </row>
+    <row r="7" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+    </row>
+    <row r="8" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+    </row>
+    <row r="9" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+    </row>
+    <row r="10" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+    </row>
+    <row r="11" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+    </row>
+    <row r="13" spans="2:60" x14ac:dyDescent="0.15">
+      <c r="B13" s="15"/>
+      <c r="C13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:60" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:BH9 C11:BH11">
+      <formula1>"○,×,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>